--- a/biology/Botanique/Osteomeles_schwerinae/Osteomeles_schwerinae.xlsx
+++ b/biology/Botanique/Osteomeles_schwerinae/Osteomeles_schwerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osteomeles schwerinae est une espèce de plantes à fleurs de la famille des Rosacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste à feuillage persistant pouvant atteindre 4 m de haut.
 Les feuilles sont imparipennées, aux folioles opposés et au pétiole très court.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine tempérée (Gansu, Guizhou, Shaanxi, Sichuan, Taïwan, Xizang, Yunnan).
 Elle est adaptée aux terrains ensoleillés et bien drainés. Elle se développe bien sous le climat français.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit légèrement sucré est comestible.
 Une utilisation ornementale de quelques variétés se développe pour la floraison et les fruits.
